--- a/packs.xlsx
+++ b/packs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -41,19 +41,19 @@
     <t>standard</t>
   </si>
   <si>
-    <t>aaaaaaaaaaaaaaaaa</t>
+    <t>deeeess</t>
+  </si>
+  <si>
+    <t>C:\Users\Guide Info\Desktop\GestionAB + apis\src\main\resources\Capture d'écran 2024-03-06 012759.png</t>
   </si>
   <si>
     <t>basic</t>
   </si>
   <si>
-    <t>bbbbbbbbbbbbbbbbbbbbbbbbbbb</t>
+    <t>modifiee</t>
   </si>
   <si>
-    <t>packJdid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pack jdidddd </t>
+    <t>C:\Users\Guide Info\Desktop\GestionAB + apis\src\main\resources\Capture d'écran 2024-03-06 013305.png</t>
   </si>
 </sst>
 </file>
@@ -98,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -152,7 +152,7 @@
         <v>30.0</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -160,33 +160,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
         <v>20.0</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/packs.xlsx
+++ b/packs.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Packs" r:id="rId3" sheetId="1"/>
+    <sheet name="Liste des packs" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <t>IdP</t>
   </si>
   <si>
     <t>Nom</t>
@@ -23,37 +23,52 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Réduction</t>
-  </si>
-  <si>
-    <t>Image</t>
+    <t>Reduction</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>premium</t>
   </si>
   <si>
-    <t>ppppppppppppppppppppp</t>
-  </si>
-  <si>
-    <t>C:\Users\Guide Info\Desktop\membre-premium-30-sur-tous-nos-produits.jpg</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>deeeess</t>
-  </si>
-  <si>
-    <t>C:\Users\Guide Info\Desktop\GestionAB + apis\src\main\resources\Capture d'écran 2024-03-06 012759.png</t>
-  </si>
-  <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>modifiee</t>
-  </si>
-  <si>
-    <t>C:\Users\Guide Info\Desktop\GestionAB + apis\src\main\resources\Capture d'écran 2024-03-06 013305.png</t>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>C:\Users\PC\OneDrive\Bureau\STUDY\SEMESTRE 2\PI\XtraTime\src\main\resources\FXMLAbonnement\membre-premium-30-sur-tous-nos-produits.jpg</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Satandart</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>C:\Users\PC\OneDrive\Bureau\STUDY\SEMESTRE 2\PI\XtraTime\src\main\resources\FXMLAbonnement\Capture d'écran 2024-03-06 012759.png</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>C:\Users\PC\OneDrive\Bureau\STUDY\SEMESTRE 2\PI\XtraTime\src\main\resources\FXMLAbonnement\Capture d'écran 2024-03-06 013305.png</t>
   </si>
 </sst>
 </file>
@@ -61,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -69,16 +84,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -86,12 +116,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thick"/>
+    </border>
+    <border>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thick"/>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFill="true" applyAlignment="true" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -103,73 +198,80 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="20.0" customWidth="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true"/>
+    <col min="4" max="4" width="20.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40.0</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.0</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+      <c r="A4" t="s">
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
-        <v>20.0</v>
+      <c r="D4" t="s">
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
